--- a/data/talk.xlsx
+++ b/data/talk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JooYoung\Box\JY\blogging\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00315273\Documents\GitHub\jy_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B778B2FF-CDA2-4E70-88D4-A7D1A670337A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D51111-8536-4540-9B83-B379EAE1694B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>what</t>
   </si>
@@ -37,173 +37,80 @@
     <t>why</t>
   </si>
   <si>
-    <t>Inclusive Making</t>
-  </si>
-  <si>
-    <t>Northwestern University</t>
-  </si>
-  <si>
-    <t>Evanston, IL</t>
-  </si>
-  <si>
-    <t>Non-Visual Access to Canvas with Assistive Technology</t>
-  </si>
-  <si>
-    <t>University Park, PA</t>
-  </si>
-  <si>
-    <t>Canvas Day 17</t>
-  </si>
-  <si>
-    <t>Student Panel Discussion: Student Issues</t>
-  </si>
-  <si>
-    <t>Seattle, WA</t>
-  </si>
-  <si>
-    <t>Ed-ICT International Network: Disabled students, ICT, post-compulsory education &amp; employment</t>
-  </si>
-  <si>
-    <t>Accessibility: The First Step towards Ability</t>
-  </si>
-  <si>
-    <t>Korea Employment Promotion Agency for the Disabled</t>
-  </si>
-  <si>
-    <t>Accessibility of Math, Statistics, and Social Sciences</t>
-  </si>
-  <si>
-    <t>The MathML Meeting, The Pennsylvania State University</t>
-  </si>
-  <si>
-    <t>Sungkyunkwan University</t>
-  </si>
-  <si>
-    <t>Being a Reasonable Realist: Wise Negotiation between Give and Take</t>
-  </si>
-  <si>
-    <t>Chonnam National University</t>
-  </si>
-  <si>
-    <t>Universal Design 101: Three Fundamental Frameworks for an Equitable World</t>
-  </si>
-  <si>
-    <t>Invited guest talk to the Learning, Design, and Technology (LDT) program of Penn State to introduce theoretical and practical background of Universal Design for Learning.</t>
-  </si>
-  <si>
-    <t>Adaptive Technology Lesson</t>
-  </si>
-  <si>
-    <t>LDT 100 - "World Technologies and Learning", The Pennsylvania State University</t>
-  </si>
-  <si>
-    <t>LDT First Friday Speaking Series, The Pennsylvania State University</t>
-  </si>
-  <si>
-    <t>Invited guest talk to Penn State MathML group to present assistive technology and accessibility for STEM content.</t>
-  </si>
-  <si>
-    <t>Invited guest talk to CNU to teach nursing faculty and students for basic concept of machine learning, computer-assisted text mining, and topic modelling to improve their qualitative data reliability.</t>
-  </si>
-  <si>
-    <t>Accessibility Testing Using NVDA</t>
-  </si>
-  <si>
-    <t>The Accessibility Users Group, The Pennsylvania State University</t>
-  </si>
-  <si>
-    <t>Invited guest talk to the Penn State online learning Accessibility User Group to train web accessibility testing with open-source screen reader NVDA.</t>
-  </si>
-  <si>
-    <t>Invited guest talk to KEAD to train the employees in concept of accessibility and universal design.</t>
-  </si>
-  <si>
-    <t>BBVS Summer Academy STEM Extension</t>
-  </si>
-  <si>
-    <t>Invited student panel to the first Ed-ICT International Network symposium.</t>
-  </si>
-  <si>
-    <t>A Small Step to Take Your Data Analysis to Another Level</t>
-  </si>
-  <si>
-    <t>Jul. 2019</t>
-  </si>
-  <si>
-    <t>Jun. 2019</t>
-  </si>
-  <si>
-    <t>May. 2019</t>
-  </si>
-  <si>
-    <t>Jul. 2018</t>
-  </si>
-  <si>
-    <t>Apr. 2018</t>
-  </si>
-  <si>
-    <t>Apr. 2017</t>
-  </si>
-  <si>
-    <t>Oct. 2017</t>
-  </si>
-  <si>
-    <t>Jul. 2017</t>
-  </si>
-  <si>
-    <t>Mar. 2017</t>
-  </si>
-  <si>
-    <t>Jul. 2016</t>
-  </si>
-  <si>
-    <t>Key-Note Speech for STEM Extension</t>
-  </si>
-  <si>
-    <t>Hosted by the Pennsylvania Department of Labor and Industry, Office of Vocational Rehabilitation’s Bureau of Blindness and Visual Services, in partnership with the Pennsylvania Department of Education, Bureau Of Special Education’s Pennsylvania Training and Technical Assistance Network and Pennsylvania State University’s College of Education and College of Health and Human Development.</t>
-  </si>
-  <si>
-    <t>Invited guest talk to SKKU “Student Success Center” as one of the successful role models to inspire undergraduate students for future planning.</t>
-  </si>
-  <si>
-    <t>Two times invited guest talk to Dr. Joshua Kirby's class for the week of “The Cost of 21st Century Education.”</t>
-  </si>
-  <si>
-    <t>Invited key-note speaker to the STEM (Science, Technology, Engineering, and Mathematics) week of “The Summer Academy for Students who are Blind or Visually Impaired.”</t>
-  </si>
-  <si>
-    <t>Invited guest talk to Dr. Marcelo Worsley’s “Inclusive Making” class for Learning Sciences Program.</t>
-  </si>
-  <si>
-    <t>Invited guest to a showcase of Canvas, a learning management tool, to demonstrate how to interact with the online system using assistive technology for students with disabilities.</t>
-  </si>
-  <si>
-    <t>Oct. 2019</t>
-  </si>
-  <si>
-    <t>Gwangju, South Korea</t>
-  </si>
-  <si>
-    <t>Seoul, South Korea</t>
-  </si>
-  <si>
-    <t>Gyeonggi, South Korea</t>
-  </si>
-  <si>
-    <t>Blockers for Users on a Screen Reader</t>
-  </si>
-  <si>
-    <t>EIT Accessibility Group, The Pennsylvania State University</t>
-  </si>
-  <si>
-    <t>Invited guest talk to a webinar to train Penn State instructional designers for key WCAG 2.1 guidelines to make content more accessible including: image alt text, clear link text and heading structure, proper table structure, form and button labels, the need for keyboard functionality and how to convey information regardless of visual formatting.</t>
+    <t>order</t>
+  </si>
+  <si>
+    <t>Utah State University</t>
+  </si>
+  <si>
+    <t>Data Analytics Student Seminar Series</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What should I “git”?  </t>
+  </si>
+  <si>
+    <t>Powerful Publishable Plots</t>
+  </si>
+  <si>
+    <t>January 19, 2019</t>
+  </si>
+  <si>
+    <t>Novermber 14, 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invited by Dr. Abby Benninghoff to present to all college faculty. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic: Best strategies for data visualization </t>
+  </si>
+  <si>
+    <t>Invited by the chapter perseident to present to the student group.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also covered using the GitKracken interface for version control and collaborative research. </t>
+  </si>
+  <si>
+    <t>Topic: Getting started with Git and GitHub</t>
+  </si>
+  <si>
+    <t>Also covered: Creating plots that reveal your data and communicate complex ideas with clarity and precision.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invited by Dr. Shawn Whiteman, CEHS Associate Dean for Research </t>
+  </si>
+  <si>
+    <t>Brown Bag Series: Meta-analysis</t>
+  </si>
+  <si>
+    <t>September 1, 2020</t>
+  </si>
+  <si>
+    <t>College of Agriculture and Applied Sciences, Office of Research</t>
+  </si>
+  <si>
+    <t>College of Education and Human Services,  Office of Research Services</t>
+  </si>
+  <si>
+    <t>Topic: Meta-analysis for single subject design studies</t>
+  </si>
+  <si>
+    <t>Invided guest lecturer</t>
+  </si>
+  <si>
+    <t>April 13, 2021</t>
+  </si>
+  <si>
+    <t>HDFS 7200: Special Topics – Meta Analysis</t>
+  </si>
+  <si>
+    <t>Invited by Dr. Diana Meter, instructor of the course</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +263,13 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -699,9 +613,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -712,6 +625,8 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1067,238 +982,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="29.86328125" customWidth="1"/>
+    <col min="3" max="3" width="22.3984375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="32.265625" customWidth="1"/>
+    <col min="5" max="5" width="26.265625" customWidth="1"/>
+    <col min="6" max="6" width="28.3984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A2" t="s">
-        <v>56</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" t="s">
-        <v>57</v>
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F7" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="B7" s="1"/>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A8" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E11" s="2"/>
+      <c r="F11" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="147.5" x14ac:dyDescent="0.75">
-      <c r="A9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="65" x14ac:dyDescent="0.75">
-      <c r="A11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" t="s">
-        <v>31</v>
-      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/talk.xlsx
+++ b/data/talk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00315273\Documents\GitHub\jy_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D51111-8536-4540-9B83-B379EAE1694B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE05760-6F22-4EAE-BA12-CC59EFCF7578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="49770" yWindow="1920" windowWidth="23715" windowHeight="12270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>what</t>
   </si>
@@ -100,10 +100,25 @@
     <t>April 13, 2021</t>
   </si>
   <si>
-    <t>HDFS 7200: Special Topics – Meta Analysis</t>
-  </si>
-  <si>
     <t>Invited by Dr. Diana Meter, instructor of the course</t>
+  </si>
+  <si>
+    <t>April 26, 2022</t>
+  </si>
+  <si>
+    <t>Invited by</t>
+  </si>
+  <si>
+    <t>Topic: Power and Sample Size Considerations in Human Subjects Research</t>
+  </si>
+  <si>
+    <t>IRB Board Training</t>
+  </si>
+  <si>
+    <t>Institutional Review Board</t>
+  </si>
+  <si>
+    <t>HDFS 7200: Meta Analysis</t>
   </si>
 </sst>
 </file>
@@ -985,7 +1000,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1113,13 +1128,13 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -1129,10 +1144,30 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B12" s="4"/>
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B13" s="1"/>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/talk.xlsx
+++ b/data/talk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00315273\Documents\GitHub\jy_CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00315273\GitHub\jy_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE05760-6F22-4EAE-BA12-CC59EFCF7578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4417B64E-AE04-4CF0-993A-B67C91F750B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49770" yWindow="1920" windowWidth="23715" windowHeight="12270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43860" yWindow="1710" windowWidth="21585" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>what</t>
   </si>
@@ -43,36 +43,15 @@
     <t>Utah State University</t>
   </si>
   <si>
-    <t>Data Analytics Student Seminar Series</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> What should I “git”?  </t>
-  </si>
-  <si>
-    <t>Powerful Publishable Plots</t>
-  </si>
-  <si>
-    <t>January 19, 2019</t>
-  </si>
-  <si>
-    <t>Novermber 14, 2019</t>
-  </si>
-  <si>
     <t xml:space="preserve">Invited by Dr. Abby Benninghoff to present to all college faculty. </t>
   </si>
   <si>
-    <t xml:space="preserve">Topic: Best strategies for data visualization </t>
-  </si>
-  <si>
     <t>Invited by the chapter perseident to present to the student group.</t>
   </si>
   <si>
     <t xml:space="preserve">Also covered using the GitKracken interface for version control and collaborative research. </t>
   </si>
   <si>
-    <t>Topic: Getting started with Git and GitHub</t>
-  </si>
-  <si>
     <t>Also covered: Creating plots that reveal your data and communicate complex ideas with clarity and precision.</t>
   </si>
   <si>
@@ -82,43 +61,88 @@
     <t>Brown Bag Series: Meta-analysis</t>
   </si>
   <si>
-    <t>September 1, 2020</t>
-  </si>
-  <si>
-    <t>College of Agriculture and Applied Sciences, Office of Research</t>
-  </si>
-  <si>
-    <t>College of Education and Human Services,  Office of Research Services</t>
-  </si>
-  <si>
     <t>Topic: Meta-analysis for single subject design studies</t>
   </si>
   <si>
-    <t>Invided guest lecturer</t>
-  </si>
-  <si>
-    <t>April 13, 2021</t>
-  </si>
-  <si>
     <t>Invited by Dr. Diana Meter, instructor of the course</t>
   </si>
   <si>
-    <t>April 26, 2022</t>
-  </si>
-  <si>
-    <t>Invited by</t>
-  </si>
-  <si>
-    <t>Topic: Power and Sample Size Considerations in Human Subjects Research</t>
-  </si>
-  <si>
-    <t>IRB Board Training</t>
-  </si>
-  <si>
     <t>Institutional Review Board</t>
   </si>
   <si>
-    <t>HDFS 7200: Meta Analysis</t>
+    <t>Jan 2019</t>
+  </si>
+  <si>
+    <t>Nov 2019</t>
+  </si>
+  <si>
+    <t>Sept 2020</t>
+  </si>
+  <si>
+    <t>April 2021</t>
+  </si>
+  <si>
+    <t>April 2022</t>
+  </si>
+  <si>
+    <t>Feb 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Office of Research Seminar</t>
+  </si>
+  <si>
+    <t>Office of Research Services</t>
+  </si>
+  <si>
+    <t>Food for Thought Speaker Series</t>
+  </si>
+  <si>
+    <t>Internal Training</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Topic: Power and Sample Size Considerations in Human Subjects Research</t>
+  </si>
+  <si>
+    <t>Topic: USU-CEHS quantitatie methods course offerings and the CARMA certificate</t>
+  </si>
+  <si>
+    <t>Invited by:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Instructional Technology and Learning Sciences Department</t>
+  </si>
+  <si>
+    <t>Human Development and Family Studies Department</t>
+  </si>
+  <si>
+    <t>Guest lecturer: HDFS 7200: Meta Analysis</t>
+  </si>
+  <si>
+    <t>Topic:  What should I “git”?  Getting started with Git and GitHub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic:  Powerful Publishable Plots, Best strategies for data visualization </t>
+  </si>
+  <si>
+    <t>Guest preseter, College-wide Seminar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Seminar: Data Analytics Student Seminar Series</t>
+  </si>
+  <si>
+    <t>Math and Stat Department</t>
+  </si>
+  <si>
+    <t>USU - College of Science</t>
+  </si>
+  <si>
+    <t>USU - College of Agriculture and Applied Sciences</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> USU -  College of Education and Human Services</t>
+  </si>
+  <si>
+    <t>Invited by: Hillary Swanson</t>
   </si>
 </sst>
 </file>
@@ -701,9 +725,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -741,7 +765,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -847,7 +871,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -989,7 +1013,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -997,15 +1021,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="29.86328125" customWidth="1"/>
+    <col min="2" max="2" width="49.86328125" customWidth="1"/>
     <col min="3" max="3" width="22.3984375" style="5" customWidth="1"/>
     <col min="4" max="4" width="32.265625" customWidth="1"/>
     <col min="5" max="5" width="26.265625" customWidth="1"/>
@@ -1037,29 +1061,29 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -1067,29 +1091,29 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F6" s="6" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F7" s="6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -1097,24 +1121,24 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -1122,39 +1146,39 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E11" s="2"/>
       <c r="F11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>5</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>30</v>
+      <c r="B12" t="s">
+        <v>25</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -1163,10 +1187,39 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" ht="38.25" x14ac:dyDescent="0.45">
       <c r="B13" s="1"/>
-      <c r="F13" t="s">
+      <c r="F13" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B14" s="1"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
         <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F16" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
